--- a/src/test/resources/Documents/25904/Base/JobMaterial.xlsx
+++ b/src/test/resources/Documents/25904/Base/JobMaterial.xlsx
@@ -131,6 +131,18 @@
     <t>Sheet</t>
   </si>
   <si>
+    <t>Sterling Ultra C1S Gloss Verso Non FSC 80# 19 x 25" 500 ppi</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>Sht</t>
+  </si>
+  <si>
+    <t>430 - Offset Stock Per 1000 cost for Jobs Only</t>
+  </si>
+  <si>
     <t>Liner  2p</t>
   </si>
   <si>
@@ -147,18 +159,6 @@
   </si>
   <si>
     <t>429 - Offset Stock cost ea for Jobs Only-Use  for shipping too.</t>
-  </si>
-  <si>
-    <t>Sterling Ultra C1S Gloss Verso Non FSC 80# 19 x 25" 500 ppi</t>
-  </si>
-  <si>
-    <t>400.00</t>
-  </si>
-  <si>
-    <t>Sht</t>
-  </si>
-  <si>
-    <t>430 - Offset Stock Per 1000 cost for Jobs Only</t>
   </si>
 </sst>
 </file>
@@ -792,25 +792,25 @@
         <v>38</v>
       </c>
       <c r="B8" t="s" s="51">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="52">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="53">
         <v>39</v>
       </c>
-      <c r="C8" t="s" s="52">
+      <c r="E8" t="s" s="54">
         <v>40</v>
       </c>
-      <c r="D8" t="s" s="53">
+      <c r="F8" t="s" s="55">
         <v>41</v>
-      </c>
-      <c r="E8" t="s" s="54">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s" s="55">
-        <v>43</v>
       </c>
       <c r="G8" t="s" s="56">
         <v>16</v>
       </c>
       <c r="H8" t="s" s="57">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -818,10 +818,10 @@
         <v>38</v>
       </c>
       <c r="B9" t="s" s="59">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="60">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s" s="61">
         <v>45</v>
